--- a/Base/Teams/Rams/Players Data.xlsx
+++ b/Base/Teams/Rams/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,12 @@
     <t>J.Funk</t>
   </si>
   <si>
+    <t>M.Brown</t>
+  </si>
+  <si>
+    <t>M.Sargent</t>
+  </si>
+  <si>
     <t>C.Kupp</t>
   </si>
   <si>
@@ -75,6 +81,9 @@
   </si>
   <si>
     <t>O.Beckham</t>
+  </si>
+  <si>
+    <t>K.Blanton</t>
   </si>
   <si>
     <t>T.Higbee</t>
@@ -438,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,16 +538,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -578,6 +587,46 @@
         <v>1</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
@@ -588,7 +637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -599,22 +648,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -651,10 +700,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,22 +723,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D4">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -700,25 +749,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>9</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -726,19 +775,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -752,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
         <v>19</v>
       </c>
-      <c r="C7">
-        <v>48</v>
-      </c>
-      <c r="D7">
-        <v>43</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -778,25 +827,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -804,24 +853,50 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Rams/Players Data.xlsx
+++ b/Base/Teams/Rams/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Rams/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_4228EACE1711CB43B7D22837F5EA457731BF2FA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F04D22B4-4668-493A-8E9B-83CDFD8B8B4A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +62,9 @@
     <t>C.Kupp</t>
   </si>
   <si>
+    <t>V.Jefferson</t>
+  </si>
+  <si>
     <t>Short Target</t>
   </si>
   <si>
@@ -72,9 +81,6 @@
   </si>
   <si>
     <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>V.Jefferson</t>
   </si>
   <si>
     <t>B.Skowronek</t>
@@ -95,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +165,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -205,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,9 +251,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +303,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,14 +496,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -490,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -510,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,19 +570,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -538,19 +590,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -570,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -590,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -598,19 +650,19 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -628,6 +680,26 @@
       </c>
       <c r="F9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -636,37 +708,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -674,25 +748,25 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -700,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -718,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -726,51 +800,51 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -778,7 +852,7 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -796,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -804,25 +878,25 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -830,16 +904,16 @@
         <v>22</v>
       </c>
       <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -848,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -874,7 +948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>

--- a/Base/Teams/Rams/Players Data.xlsx
+++ b/Base/Teams/Rams/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Rams/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_4228EACE1711CB43B7D22837F5EA457731BF2FA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F04D22B4-4668-493A-8E9B-83CDFD8B8B4A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -96,13 +90,16 @@
   </si>
   <si>
     <t>J.Mundt</t>
+  </si>
+  <si>
+    <t>B.Hopkins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +162,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -219,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,24 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,16 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -542,7 +493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -562,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -570,19 +521,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -590,19 +541,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -622,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -642,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -650,19 +601,19 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -673,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -682,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -708,16 +659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -748,25 +697,25 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -777,13 +726,13 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -792,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -800,25 +749,25 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D4">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -829,22 +778,22 @@
         <v>52</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -852,10 +801,10 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -870,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -878,25 +827,25 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -904,16 +853,16 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -922,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -948,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -971,6 +920,32 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Rams/Players Data.xlsx
+++ b/Base/Teams/Rams/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Rams/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_756B68D44A694B445D923C37F5EA457791369EC0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E50AF66-6B2D-4E00-801C-BF1D47D7899A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -98,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +168,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -208,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,9 +254,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,6 +306,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,14 +499,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -484,16 +536,16 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -513,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -521,19 +573,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,19 +593,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="E5">
         <v>30</v>
       </c>
-      <c r="E5">
-        <v>14</v>
-      </c>
       <c r="F5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,19 +613,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -593,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -601,19 +653,19 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -621,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -633,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -659,14 +711,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,12 +743,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>38</v>
@@ -715,195 +769,195 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>124</v>
+      </c>
+      <c r="D3">
+        <v>96</v>
+      </c>
+      <c r="E3">
+        <v>41</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>112</v>
-      </c>
-      <c r="D4">
-        <v>87</v>
-      </c>
-      <c r="E4">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>22</v>
-      </c>
-      <c r="G4">
-        <v>26</v>
-      </c>
-      <c r="H4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>52</v>
-      </c>
-      <c r="D5">
-        <v>32</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-      <c r="F5">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="G5">
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>51</v>
-      </c>
-      <c r="D7">
-        <v>45</v>
-      </c>
-      <c r="E7">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>54</v>
-      </c>
-      <c r="D9">
-        <v>41</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>16</v>
-      </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
       <c r="C10">
         <v>1</v>
       </c>
@@ -920,32 +974,6 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Rams/Players Data.xlsx
+++ b/Base/Teams/Rams/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Rams/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_756B68D44A694B445D923C37F5EA457791369EC0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E50AF66-6B2D-4E00-801C-BF1D47D7899A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -42,9 +36,6 @@
   </si>
   <si>
     <t>J.Wolford</t>
-  </si>
-  <si>
-    <t>D.Henderson</t>
   </si>
   <si>
     <t>S.Michel</t>
@@ -104,8 +95,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,14 +159,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -222,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,27 +237,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,24 +271,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,16 +446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -545,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -565,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -573,19 +518,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -593,19 +538,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -613,19 +558,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -633,19 +578,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -653,19 +598,19 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -676,32 +621,12 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -711,50 +636,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -769,24 +692,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <v>30</v>
@@ -795,24 +718,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -821,18 +744,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -847,21 +770,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -873,12 +796,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -899,18 +822,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -925,38 +848,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>24</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
       </c>
       <c r="C10">
         <v>1</v>

--- a/Base/Teams/Rams/Players Data.xlsx
+++ b/Base/Teams/Rams/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -47,7 +47,7 @@
     <t>M.Brown</t>
   </si>
   <si>
-    <t>M.Sargent</t>
+    <t>C.Akers</t>
   </si>
   <si>
     <t>C.Kupp</t>
@@ -478,16 +478,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -518,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>5</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -598,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -637,7 +637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -674,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -697,25 +697,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -723,25 +723,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -749,25 +749,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -775,25 +775,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -827,25 +827,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -853,25 +853,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -879,24 +879,50 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Rams/Players Data.xlsx
+++ b/Base/Teams/Rams/Players Data.xlsx
@@ -481,13 +481,13 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -524,7 +524,7 @@
         <v>61</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>36</v>
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="C7">
+        <v>31</v>
+      </c>
+      <c r="D7">
         <v>14</v>
       </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -700,10 +700,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -726,22 +726,22 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -752,10 +752,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -764,10 +764,10 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -804,22 +804,22 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -830,11 +830,11 @@
         <v>21</v>
       </c>
       <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -856,16 +856,16 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>19</v>

--- a/Base/Teams/Rams/Players Data.xlsx
+++ b/Base/Teams/Rams/Players Data.xlsx
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -518,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -598,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -674,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -686,10 +686,10 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -700,10 +700,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -726,22 +726,22 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -752,13 +752,13 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>12</v>
@@ -784,7 +784,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -804,16 +804,16 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D7">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>24</v>
@@ -830,22 +830,22 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
         <v>2</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -856,10 +856,10 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>11</v>
@@ -868,10 +868,10 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8">
